--- a/test.xlsx
+++ b/test.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Bauteil </t>
+    <t>Bauteil</t>
   </si>
   <si>
     <t>Maße x</t>
